--- a/20.02.20/female_survivors.xlsx
+++ b/20.02.20/female_survivors.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L170"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
